--- a/results/real_data_guru_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_07/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_07/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.1_opt_constrained\k=0.1\ROI_greedy\dataset_07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1083F055-90B7-436C-8BC6-7DA4A0D12A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_07_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.9914748508098892</v>
+        <v>0.99147485080988917</v>
       </c>
       <c r="O2">
         <v>1373</v>
@@ -615,19 +704,19 @@
         <v>1.926436039219934</v>
       </c>
       <c r="R2">
-        <v>787.7127921560132</v>
+        <v>787.71279215601317</v>
       </c>
       <c r="S2">
-        <v>6.865</v>
+        <v>6.8650000000000002</v>
       </c>
       <c r="T2">
-        <v>9.614814814814816</v>
+        <v>9.6148148148148156</v>
       </c>
       <c r="U2">
-        <v>2.263305118825606</v>
+        <v>2.2633051188256061</v>
       </c>
       <c r="V2">
-        <v>857.4538089585432</v>
+        <v>857.45380895854316</v>
       </c>
       <c r="W2">
         <v>15217</v>
@@ -639,10 +728,10 @@
         <v>15207</v>
       </c>
       <c r="Z2">
-        <v>1.000657591898468</v>
+        <v>1.0006575918984679</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9793689320388349</v>
+        <v>0.97936893203883491</v>
       </c>
       <c r="O3">
         <v>1873</v>
@@ -692,16 +781,16 @@
         <v>225</v>
       </c>
       <c r="Q3">
-        <v>2.119196300239668</v>
+        <v>2.1191963002396679</v>
       </c>
       <c r="R3">
-        <v>1171.180832446075</v>
+        <v>1171.1808324460751</v>
       </c>
       <c r="S3">
-        <v>8.324444444444444</v>
+        <v>8.3244444444444436</v>
       </c>
       <c r="T3">
-        <v>13.41538461538462</v>
+        <v>13.415384615384619</v>
       </c>
       <c r="U3">
         <v>2.596402154013342</v>
@@ -722,7 +811,7 @@
         <v>1.001887630468576</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9542743538767395</v>
+        <v>0.95427435387673953</v>
       </c>
       <c r="O4">
         <v>1669</v>
@@ -772,10 +861,10 @@
         <v>160</v>
       </c>
       <c r="Q4">
-        <v>2.344806108428008</v>
+        <v>2.3448061084280081</v>
       </c>
       <c r="R4">
-        <v>1133.831022651519</v>
+        <v>1133.8310226515191</v>
       </c>
       <c r="S4">
         <v>10.43125</v>
@@ -784,7 +873,7 @@
         <v>12.52</v>
       </c>
       <c r="U4">
-        <v>2.527327365671952</v>
+        <v>2.5273273656719519</v>
       </c>
       <c r="V4">
         <v>1124.084079291006</v>
@@ -799,10 +888,10 @@
         <v>23802</v>
       </c>
       <c r="Z4">
-        <v>1.002898916057474</v>
+        <v>1.0028989160574739</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.7744471744471745</v>
+        <v>0.77444717444717448</v>
       </c>
       <c r="O5">
         <v>2395</v>
@@ -852,13 +941,13 @@
         <v>360</v>
       </c>
       <c r="Q5">
-        <v>1.89503447839486</v>
+        <v>1.8950344783948601</v>
       </c>
       <c r="R5">
-        <v>1352.787587777851</v>
+        <v>1352.7875877778511</v>
       </c>
       <c r="S5">
-        <v>6.652777777777778</v>
+        <v>6.6527777777777777</v>
       </c>
       <c r="T5">
         <v>10.85</v>
@@ -867,7 +956,7 @@
         <v>2.384165079986468</v>
       </c>
       <c r="V5">
-        <v>1194.533587202165</v>
+        <v>1194.5335872021651</v>
       </c>
       <c r="W5">
         <v>26715</v>
@@ -882,7 +971,7 @@
         <v>1.017481718464351</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9715116279069768</v>
+        <v>0.97151162790697676</v>
       </c>
       <c r="O6">
         <v>1922</v>
@@ -932,16 +1021,16 @@
         <v>202</v>
       </c>
       <c r="Q6">
-        <v>2.252853892129033</v>
+        <v>2.2528538921290329</v>
       </c>
       <c r="R6">
         <v>1264.923513789935</v>
       </c>
       <c r="S6">
-        <v>9.514851485148515</v>
+        <v>9.5148514851485153</v>
       </c>
       <c r="T6">
-        <v>11.99342105263158</v>
+        <v>11.993421052631581</v>
       </c>
       <c r="U6">
         <v>2.484358253832387</v>
@@ -959,10 +1048,10 @@
         <v>17417</v>
       </c>
       <c r="Z6">
-        <v>1.002813343285296</v>
+        <v>1.0028133432852959</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9023849140321686</v>
+        <v>0.90238491403216858</v>
       </c>
       <c r="O7">
         <v>2008</v>
@@ -1012,10 +1101,10 @@
         <v>205</v>
       </c>
       <c r="Q7">
-        <v>2.281884501673212</v>
+        <v>2.2818845016732121</v>
       </c>
       <c r="R7">
-        <v>1335.213677156992</v>
+        <v>1335.2136771569919</v>
       </c>
       <c r="S7">
         <v>9.795121951219512</v>
@@ -1042,7 +1131,7 @@
         <v>1.009460839649519</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.8391151332327803</v>
+        <v>0.83911513323278031</v>
       </c>
       <c r="O8">
         <v>2489</v>
@@ -1098,16 +1187,16 @@
         <v>1186.4858980273</v>
       </c>
       <c r="S8">
-        <v>4.978</v>
+        <v>4.9779999999999998</v>
       </c>
       <c r="T8">
         <v>14.352</v>
       </c>
       <c r="U8">
-        <v>2.66388930531644</v>
+        <v>2.6638893053164399</v>
       </c>
       <c r="V8">
-        <v>1336.013836835445</v>
+        <v>1336.0138368354451</v>
       </c>
       <c r="W8">
         <v>22616</v>
@@ -1122,7 +1211,7 @@
         <v>1.014352350197345</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1172,22 +1261,22 @@
         <v>230</v>
       </c>
       <c r="Q9">
-        <v>2.173268408480426</v>
+        <v>2.1732684084804261</v>
       </c>
       <c r="R9">
-        <v>1291.148266049502</v>
+        <v>1291.1482660495019</v>
       </c>
       <c r="S9">
-        <v>8.78695652173913</v>
+        <v>8.7869565217391301</v>
       </c>
       <c r="T9">
-        <v>11.2625</v>
+        <v>11.262499999999999</v>
       </c>
       <c r="U9">
         <v>2.421478622934456</v>
       </c>
       <c r="V9">
-        <v>1254.563420330487</v>
+        <v>1254.5634203304869</v>
       </c>
       <c r="W9">
         <v>24218</v>
@@ -1199,10 +1288,10 @@
         <v>24069</v>
       </c>
       <c r="Z9">
-        <v>1.006190535543645</v>
+        <v>1.0061905355436449</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1332,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.8974358974358975</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="O10">
         <v>2776</v>
@@ -1252,19 +1341,19 @@
         <v>280</v>
       </c>
       <c r="Q10">
-        <v>2.293976718457445</v>
+        <v>2.2939767184574449</v>
       </c>
       <c r="R10">
         <v>1853.686518831915</v>
       </c>
       <c r="S10">
-        <v>9.914285714285715</v>
+        <v>9.9142857142857146</v>
       </c>
       <c r="T10">
-        <v>10.73913043478261</v>
+        <v>10.739130434782609</v>
       </c>
       <c r="U10">
-        <v>2.373894120698828</v>
+        <v>2.3738941206988282</v>
       </c>
       <c r="V10">
         <v>1694.00435223927</v>
@@ -1279,10 +1368,10 @@
         <v>20984</v>
       </c>
       <c r="Z10">
-        <v>1.012199771254289</v>
+        <v>1.0121997712542889</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.7878625134264232</v>
+        <v>0.78786251342642322</v>
       </c>
       <c r="O11">
         <v>2362</v>
@@ -1338,13 +1427,13 @@
         <v>1085.672050832442</v>
       </c>
       <c r="S11">
-        <v>4.724</v>
+        <v>4.7240000000000002</v>
       </c>
       <c r="T11">
         <v>10.46451612903226</v>
       </c>
       <c r="U11">
-        <v>2.347990117756112</v>
+        <v>2.3479901177561122</v>
       </c>
       <c r="V11">
         <v>1103.061531747803</v>
@@ -1359,10 +1448,53 @@
         <v>21125</v>
       </c>
       <c r="Z11">
-        <v>1.018698224852071</v>
+        <v>1.0186982248520711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.90146816506965544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0086640921671035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.77444717444717448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0186982248520711</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>